--- a/results/Final_simulation_results_averaged.xlsx
+++ b/results/Final_simulation_results_averaged.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="25">
   <si>
     <t>Experiment type</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>best_boosted_380</t>
+  </si>
+  <si>
+    <t>best_boosted_100_mod_par</t>
   </si>
   <si>
     <t>WWW automatic</t>
@@ -172,14 +175,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF93C47D"/>
-        <bgColor rgb="FF93C47D"/>
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0"/>
+        <fgColor rgb="FF93C47D"/>
+        <bgColor rgb="FF93C47D"/>
       </patternFill>
     </fill>
     <fill>
@@ -312,23 +315,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
@@ -353,12 +362,6 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -592,13 +595,13 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.25"/>
+    <col customWidth="1" min="1" max="1" width="34.25"/>
     <col customWidth="1" min="2" max="2" width="25.75"/>
     <col customWidth="1" min="3" max="3" width="24.75"/>
     <col customWidth="1" min="4" max="4" width="16.88"/>
     <col customWidth="1" min="5" max="5" width="18.75"/>
     <col customWidth="1" min="6" max="6" width="16.5"/>
-    <col customWidth="1" min="7" max="7" width="25.0"/>
+    <col customWidth="1" min="7" max="7" width="28.0"/>
     <col customWidth="1" min="8" max="8" width="23.88"/>
     <col customWidth="1" min="11" max="11" width="17.0"/>
   </cols>
@@ -877,36 +880,56 @@
       <c r="L8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17" t="s">
+      <c r="B9" s="15">
+        <v>0.009</v>
+      </c>
+      <c r="C9" s="16">
+        <v>783.6</v>
+      </c>
+      <c r="D9" s="16">
+        <v>973.6</v>
+      </c>
+      <c r="E9" s="16">
+        <v>83.8</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.0103</v>
+      </c>
+      <c r="I9" s="10">
+        <v>808.7</v>
+      </c>
+      <c r="J9" s="10">
+        <v>949.6</v>
+      </c>
+      <c r="K9" s="10">
+        <v>82.7</v>
+      </c>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="5"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="L10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -930,7 +953,7 @@
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="3" t="s">
         <v>0</v>
       </c>
@@ -943,7 +966,7 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="21" t="s">
         <v>4</v>
       </c>
       <c r="L12" s="5"/>
@@ -964,7 +987,7 @@
       <c r="E13" s="8">
         <v>141.3</v>
       </c>
-      <c r="F13" s="16"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="6" t="s">
         <v>5</v>
       </c>
@@ -998,7 +1021,7 @@
       <c r="E14" s="12">
         <v>107.6</v>
       </c>
-      <c r="F14" s="16"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="6" t="s">
         <v>6</v>
       </c>
@@ -1032,7 +1055,7 @@
       <c r="E15" s="12">
         <v>65.1</v>
       </c>
-      <c r="F15" s="16"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="6" t="s">
         <v>7</v>
       </c>
@@ -1066,7 +1089,7 @@
       <c r="E16" s="11">
         <v>51.0</v>
       </c>
-      <c r="F16" s="16"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="6" t="s">
         <v>8</v>
       </c>
@@ -1100,7 +1123,7 @@
       <c r="E17" s="12">
         <v>93.7</v>
       </c>
-      <c r="F17" s="16"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="6" t="s">
         <v>9</v>
       </c>
@@ -1119,17 +1142,17 @@
       <c r="L17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>15</v>
       </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="20" t="s">
+        <v>16</v>
+      </c>
       <c r="L18" s="5"/>
     </row>
     <row r="19">
-      <c r="A19" s="16"/>
+      <c r="A19" s="17"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -1152,31 +1175,21 @@
       <c r="L20" s="5"/>
     </row>
     <row r="21">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="F21" s="13"/>
       <c r="L21" s="5"/>
     </row>
     <row r="22">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
       <c r="L22" s="5"/>
     </row>
     <row r="23">
@@ -1209,11 +1222,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="G9:K9"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="G18:K18"/>
     <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="G10:K10"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1234,204 +1247,204 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="22"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2">
-      <c r="A2" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="24">
+      <c r="A2" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="26">
         <v>2.15E-4</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="27">
         <v>0.0139</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="26">
         <v>737.38</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="26">
         <v>827.63</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="26">
         <v>275.98</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="24">
+      <c r="A3" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="26">
         <v>1.33E-4</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="27">
         <v>0.0086</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="26">
         <v>655.83</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="26">
         <v>1070.33</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="26">
         <v>110.22</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="24">
+      <c r="A4" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="26">
         <v>-0.00319</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="27">
         <v>-0.1873</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="26">
         <v>520.19</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="26">
         <v>1007.41</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="26">
         <v>82.26</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="24">
+      <c r="A5" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="26">
         <v>1.01E-4</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="27">
         <v>0.0065</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="26">
         <v>351.49</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="26">
         <v>1416.73</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="26">
         <v>73.19</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="24">
+      <c r="A6" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="26">
         <v>1.83E-4</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="27">
         <v>0.0118</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="26">
         <v>379.76</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="26">
         <v>1323.01</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="26">
         <v>137.66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="31" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="30"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="30"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="30"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="30"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="30"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="33"/>
-      <c r="F14" s="30"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15">
       <c r="A15" s="34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>

--- a/results/Final_simulation_results_averaged.xlsx
+++ b/results/Final_simulation_results_averaged.xlsx
@@ -1,13 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fortu\Desktop\WebKnoGraph\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540D09D6-57C1-4E0D-8463-04A59803D651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="real_www" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="BA" sheetId="2" r:id="rId5"/>
+    <sheet name="real_www" sheetId="1" r:id="rId1"/>
+    <sheet name="BA" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -92,68 +112,75 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="-apple-system"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -205,7 +232,13 @@
     </fill>
   </fills>
   <borders count="9">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -219,180 +252,199 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="8" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+  <cellXfs count="40">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -582,31 +634,36 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="34.25"/>
-    <col customWidth="1" min="2" max="2" width="25.75"/>
-    <col customWidth="1" min="3" max="3" width="24.75"/>
-    <col customWidth="1" min="4" max="4" width="16.88"/>
-    <col customWidth="1" min="5" max="5" width="18.75"/>
-    <col customWidth="1" min="6" max="6" width="16.5"/>
-    <col customWidth="1" min="7" max="7" width="28.0"/>
-    <col customWidth="1" min="8" max="8" width="23.88"/>
-    <col customWidth="1" min="11" max="11" width="17.0"/>
+    <col min="1" max="1" width="34.21875" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -640,12 +697,12 @@
       </c>
       <c r="L1" s="5"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="7">
-        <v>0.0139</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="C2" s="8">
         <v>774.3</v>
@@ -661,7 +718,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="9">
-        <v>0.0137</v>
+        <v>1.37E-2</v>
       </c>
       <c r="I2" s="10">
         <v>784.44</v>
@@ -674,12 +731,12 @@
       </c>
       <c r="L2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="7">
-        <v>0.0082</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="C3" s="8">
         <v>671.3</v>
@@ -695,7 +752,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="9">
-        <v>0.0081</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="I3" s="10">
         <v>667.52</v>
@@ -708,18 +765,18 @@
       </c>
       <c r="L3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="7">
-        <v>0.0105</v>
+        <v>1.0500000000000001E-2</v>
       </c>
       <c r="C4" s="8">
         <v>371.8</v>
       </c>
       <c r="D4" s="8">
-        <v>1358.0</v>
+        <v>1358</v>
       </c>
       <c r="E4" s="11">
         <v>111.2</v>
@@ -729,10 +786,10 @@
         <v>7</v>
       </c>
       <c r="H4" s="9">
-        <v>0.0104</v>
+        <v>1.04E-2</v>
       </c>
       <c r="I4" s="10">
-        <v>374.0</v>
+        <v>374</v>
       </c>
       <c r="J4" s="10">
         <v>1351.36</v>
@@ -742,12 +799,12 @@
       </c>
       <c r="L4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="7">
-        <v>0.0068</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="C5" s="8">
         <v>365.4</v>
@@ -763,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="9">
-        <v>0.0067</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="I5" s="10">
         <v>366.61</v>
@@ -772,16 +829,16 @@
         <v>1402.85</v>
       </c>
       <c r="K5" s="10">
-        <v>71.54</v>
+        <v>71.540000000000006</v>
       </c>
       <c r="L5" s="5"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="7">
-        <v>0.0114</v>
+        <v>1.14E-2</v>
       </c>
       <c r="C6" s="8">
         <v>401.2</v>
@@ -797,7 +854,7 @@
         <v>9</v>
       </c>
       <c r="H6" s="9">
-        <v>0.0113</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="I6" s="10">
         <v>404.23</v>
@@ -810,28 +867,28 @@
       </c>
       <c r="L6" s="5"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="7">
-        <v>0.0094</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="C7" s="8">
-        <v>615.2</v>
+        <v>615.20000000000005</v>
       </c>
       <c r="D7" s="8">
-        <v>1078.0</v>
+        <v>1078</v>
       </c>
       <c r="E7" s="8">
-        <v>147.8</v>
+        <v>147.80000000000001</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="9">
-        <v>0.0093</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="I7" s="10">
         <v>616.37</v>
@@ -840,16 +897,16 @@
         <v>1070.57</v>
       </c>
       <c r="K7" s="10">
-        <v>154.05</v>
+        <v>154.05000000000001</v>
       </c>
       <c r="L7" s="5"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="7">
-        <v>0.0085</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="C8" s="8">
         <v>757.08</v>
@@ -864,9 +921,8 @@
       <c r="G8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="14">
-        <f>+0.84%</f>
-        <v>0.0084</v>
+      <c r="H8" s="39">
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="I8" s="10">
         <v>753.46</v>
@@ -879,28 +935,28 @@
       </c>
       <c r="L8" s="5"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="15">
-        <v>0.009</v>
-      </c>
-      <c r="C9" s="16">
+      <c r="B9" s="14">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C9" s="15">
         <v>783.6</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <v>973.6</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>83.8</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="9">
-        <v>0.0103</v>
+        <v>1.03E-2</v>
       </c>
       <c r="I9" s="10">
         <v>808.7</v>
@@ -913,23 +969,31 @@
       </c>
       <c r="L9" s="5"/>
     </row>
-    <row r="10">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A10" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="33" t="s">
         <v>14</v>
       </c>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+    <row r="11" spans="1:12">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -937,7 +1001,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
@@ -953,7 +1017,7 @@
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="3" t="s">
         <v>0</v>
       </c>
@@ -966,67 +1030,67 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="18" t="s">
         <v>4</v>
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="7">
-        <v>0.0073</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="C13" s="8">
-        <v>614.8</v>
+        <v>614.79999999999995</v>
       </c>
       <c r="D13" s="8">
-        <v>1085.0</v>
+        <v>1085</v>
       </c>
       <c r="E13" s="8">
-        <v>141.3</v>
-      </c>
-      <c r="F13" s="17"/>
+        <v>141.30000000000001</v>
+      </c>
+      <c r="F13" s="16"/>
       <c r="G13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="9">
-        <v>0.0074</v>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="I13" s="10">
-        <v>624.33</v>
+        <v>624.33000000000004</v>
       </c>
       <c r="J13" s="10">
         <v>1071.98</v>
       </c>
       <c r="K13" s="10">
-        <v>144.7</v>
+        <v>144.69999999999999</v>
       </c>
       <c r="L13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="7">
-        <v>0.0026</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="C14" s="8">
         <v>682.4</v>
       </c>
       <c r="D14" s="8">
-        <v>1051.0</v>
+        <v>1051</v>
       </c>
       <c r="E14" s="12">
         <v>107.6</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="9">
-        <v>0.0027</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="I14" s="10">
         <v>681.34</v>
@@ -1039,28 +1103,28 @@
       </c>
       <c r="L14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="7">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="C15" s="8">
-        <v>326.4</v>
+        <v>326.39999999999998</v>
       </c>
       <c r="D15" s="8">
         <v>1449.6</v>
       </c>
       <c r="E15" s="12">
-        <v>65.1</v>
-      </c>
-      <c r="F15" s="17"/>
+        <v>65.099999999999994</v>
+      </c>
+      <c r="F15" s="16"/>
       <c r="G15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="9">
-        <v>0.0012</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="I15" s="10">
         <v>330.45</v>
@@ -1069,16 +1133,16 @@
         <v>1443.46</v>
       </c>
       <c r="K15" s="10">
-        <v>67.1</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="L15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="7">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C16" s="8">
         <v>362.1</v>
@@ -1087,32 +1151,32 @@
         <v>1427.9</v>
       </c>
       <c r="E16" s="11">
-        <v>51.0</v>
-      </c>
-      <c r="F16" s="17"/>
+        <v>51</v>
+      </c>
+      <c r="F16" s="16"/>
       <c r="G16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="9">
-        <v>0.0078</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="I16" s="10">
         <v>362.91</v>
       </c>
       <c r="J16" s="10">
-        <v>1424.0</v>
+        <v>1424</v>
       </c>
       <c r="K16" s="10">
         <v>54.1</v>
       </c>
       <c r="L16" s="5"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="7">
-        <v>-0.0027</v>
+        <v>-2.7000000000000001E-3</v>
       </c>
       <c r="C17" s="8">
         <v>424.6</v>
@@ -1123,36 +1187,49 @@
       <c r="E17" s="12">
         <v>93.7</v>
       </c>
-      <c r="F17" s="17"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H17" s="9">
-        <v>-0.0028</v>
+        <v>-2.8E-3</v>
       </c>
       <c r="I17" s="10">
         <v>434.39</v>
       </c>
       <c r="J17" s="10">
-        <v>1309.15</v>
+        <v>1309.1500000000001</v>
       </c>
       <c r="K17" s="10">
         <v>97.47</v>
       </c>
       <c r="L17" s="5"/>
     </row>
-    <row r="18">
-      <c r="A18" s="18" t="s">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A18" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="20" t="s">
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="33" t="s">
         <v>16</v>
       </c>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19">
-      <c r="A19" s="17"/>
+    <row r="19" spans="1:12">
+      <c r="A19" s="34"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -1160,7 +1237,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:12">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1174,25 +1251,25 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:12">
       <c r="F21" s="13"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:12">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1206,7 +1283,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:12">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1228,235 +1305,241 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="G10:K10"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="24.63"/>
-    <col customWidth="1" min="3" max="3" width="18.13"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="24"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="25" t="s">
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="26">
-        <v>2.15E-4</v>
-      </c>
-      <c r="C2" s="27">
-        <v>0.0139</v>
-      </c>
-      <c r="D2" s="26">
+      <c r="B2" s="23">
+        <v>2.1499999999999999E-4</v>
+      </c>
+      <c r="C2" s="24">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="D2" s="23">
         <v>737.38</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="23">
         <v>827.63</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="23">
         <v>275.98</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="26">
-        <v>1.33E-4</v>
-      </c>
-      <c r="C3" s="27">
-        <v>0.0086</v>
-      </c>
-      <c r="D3" s="26">
+      <c r="B3" s="23">
+        <v>1.3300000000000001E-4</v>
+      </c>
+      <c r="C3" s="24">
+        <v>8.6E-3</v>
+      </c>
+      <c r="D3" s="23">
         <v>655.83</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="23">
         <v>1070.33</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="23">
         <v>110.22</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="26">
-        <v>-0.00319</v>
-      </c>
-      <c r="C4" s="27">
-        <v>-0.1873</v>
-      </c>
-      <c r="D4" s="26">
-        <v>520.19</v>
-      </c>
-      <c r="E4" s="26">
+      <c r="B4" s="23">
+        <v>-3.1900000000000001E-3</v>
+      </c>
+      <c r="C4" s="24">
+        <v>-0.18729999999999999</v>
+      </c>
+      <c r="D4" s="23">
+        <v>520.19000000000005</v>
+      </c>
+      <c r="E4" s="23">
         <v>1007.41</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="23">
         <v>82.26</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="23">
         <v>1.01E-4</v>
       </c>
-      <c r="C5" s="27">
-        <v>0.0065</v>
-      </c>
-      <c r="D5" s="26">
+      <c r="C5" s="24">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="D5" s="23">
         <v>351.49</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="23">
         <v>1416.73</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="23">
         <v>73.19</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="23">
         <v>1.83E-4</v>
       </c>
-      <c r="C6" s="27">
-        <v>0.0118</v>
-      </c>
-      <c r="D6" s="26">
+      <c r="C6" s="24">
+        <v>1.18E-2</v>
+      </c>
+      <c r="D6" s="23">
         <v>379.76</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="23">
         <v>1323.01</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="23">
         <v>137.66</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="35" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="28" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="31" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="31" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="31" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="31" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="31" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="34" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A15:F15"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>